--- a/results/escherichia_coli/Cra_Crp_Study/NBR_condition-specific_enrichment_analysis.xlsx
+++ b/results/escherichia_coli/Cra_Crp_Study/NBR_condition-specific_enrichment_analysis.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_ac_e3.33_Presence" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_ac_e3.33-deletion_Cra_Presence" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_fru_e10.0_Presence" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_fru_e10.0-deletion_Cra_Presence" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glc__D_e10.0-deletion_Cra_Presence" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_ac_e3.33" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_ac_e3.33-deletion_Cra" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_fru_e10.0" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_fru_e10.0-deletion_Cra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glc__D_e10.0-deletion_Cra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -469,18 +469,18 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3.94297007132295e-70</v>
+        <v>2.597868562548451e-34</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5403225806451613</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5403225806451613</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -488,18 +488,18 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.254488090032789e-59</v>
+        <v>1.242528317137445e-17</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5898876404494382</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5898876404494382</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -507,512 +507,512 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5.161625217707981e-15</v>
+        <v>7.6978383139072e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.381294964028777</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4545454545454545</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.93980995705983e-11</v>
+        <v>0.0006277609127473556</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5384615384615384</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Nitrogen Metabolism</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.824600260234589e-10</v>
+        <v>0.001481714932633337</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3434343434343434</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3434343434343434</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4.498795177479711e-09</v>
+        <v>0.07370241944076737</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5517241379310345</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Methylglyoxal Metabolism</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.09335939882486466</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="E8" t="n">
         <v>9</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Methylglyoxal Metabolism</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1.160666089892884e-06</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.875</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>7.573069575234758e-06</v>
+        <v>0.09772678439150512</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2839506172839506</v>
+        <v>0.2884615384615384</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2839506172839506</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.023009535198903e-05</v>
+        <v>0.1479925134782242</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5625</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5625</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.168183900232842e-05</v>
+        <v>0.5009223460646292</v>
       </c>
       <c r="D11" t="n">
-        <v>0.44</v>
+        <v>0.208955223880597</v>
       </c>
       <c r="E11" t="n">
-        <v>0.44</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Threonine and Lysine Metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9.144730206742498e-05</v>
+        <v>0.5712119141391866</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4166666666666667</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Glycine and Serine Metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0005646655467054802</v>
+        <v>0.5745443606480618</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3235294117647059</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3235294117647059</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>Pyruvate Metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.009022458252534169</v>
+        <v>0.6424106097029533</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2264150943396226</v>
+        <v>0.2</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2264150943396226</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Threonine and Lysine Metabolism</t>
+          <t>tRNA Charging</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0155960208975826</v>
+        <v>0.6935683218000392</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Murein Biosynthesis</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.01635587207338286</v>
+        <v>0.6967712789104121</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.03746513509697274</v>
+        <v>0.730558660166255</v>
       </c>
       <c r="D17" t="n">
-        <v>0.25</v>
+        <v>0.1830985915492958</v>
       </c>
       <c r="E17" t="n">
-        <v>0.25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Arginine and Proline Metabolism</t>
+          <t>Pentose Phosphate Pathway</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.06691497176870942</v>
+        <v>0.7423114262215667</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1951219512195122</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1951219512195122</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.06906301751739108</v>
+        <v>0.7826445748206224</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2666666666666667</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.07247274308068392</v>
+        <v>0.8013545499108803</v>
       </c>
       <c r="D20" t="n">
         <v>0.1785714285714286</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1785714285714286</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Arginine and Proline Metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.08360020084348976</v>
+        <v>0.8617869786215644</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cofactor and Prosthetic Group Biosynthesis</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.1480014837585341</v>
+        <v>0.8618522718924679</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1340782122905028</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1340782122905028</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.1686749149846879</v>
+        <v>0.8749748586491989</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2857142857142857</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Glycine and Serine Metabolism</t>
+          <t>Methionine Metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.2137180712733461</v>
+        <v>0.9688813963395438</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Murein Biosynthesis</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.4811875120223932</v>
+        <v>0.9688813963395438</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1212121212121212</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.4856868458340832</v>
+        <v>0.9809176499537486</v>
       </c>
       <c r="D26" t="n">
-        <v>0.125</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="E26" t="n">
-        <v>0.125</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.4909879832824581</v>
+        <v>0.9951555766668029</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1333333333333333</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Cofactor and Prosthetic Group Biosynthesis</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.6799962922158349</v>
+        <v>0.9999998042948141</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1</v>
+        <v>0.0867579908675799</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Methionine Metabolism</t>
+          <t>Purine and Pyrimidine Biosynthesis</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.8191725030277562</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.06666666666666667</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Histidine Metabolism</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.9353941267733539</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.04166666666666666</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1026,16 +1026,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1045,16 +1045,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1064,16 +1064,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Citric Acid Cycle</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1083,16 +1083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Purine and Pyrimidine Biosynthesis</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Citric Acid Cycle</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1121,16 +1121,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Histidine Metabolism</t>
+          <t>Alanine and Aspartate Metabolism</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1140,12 +1140,12 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1159,7 +1159,45 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Intracellular demand</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1173,7 +1211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1205,619 +1243,619 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alternate Carbon Metabolism</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9.555852055556273e-70</v>
+        <v>3.619718504279391e-107</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6348314606741573</v>
+        <v>0.9185185185185185</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6348314606741573</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transport, Inner Membrane</t>
+          <t>Alternate Carbon Metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4.995373232321895e-60</v>
+        <v>5.425257912518205e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.42086279604403e-11</v>
+        <v>0.005268773156524079</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6206896551724138</v>
+        <v>0.3943089430894309</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6206896551724138</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nucleotide Salvage Pathway</t>
+          <t>Nitrogen Metabolism</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.44761083737726e-10</v>
+        <v>0.006263935220945895</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3766233766233766</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3766233766233766</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.368905634373449e-08</v>
+        <v>0.01468551752211618</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5833333333333334</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cofactor and Prosthetic Group Biosynthesis</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3.263739960624046e-07</v>
+        <v>0.03401573635776926</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2346368715083799</v>
+        <v>0.4565217391304348</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2346368715083799</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Methylglyoxal Metabolism</t>
+          <t>Transport, Inner Membrane</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.05802787861627e-06</v>
+        <v>0.1136956069284797</v>
       </c>
       <c r="D8" t="n">
-        <v>0.875</v>
+        <v>0.3493975903614458</v>
       </c>
       <c r="E8" t="n">
-        <v>0.875</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Methylglyoxal Metabolism</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.454575333719028e-06</v>
+        <v>0.3146939081706267</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.531246910859301e-06</v>
+        <v>0.4390733245070292</v>
       </c>
       <c r="D10" t="n">
-        <v>0.48</v>
+        <v>0.3283582089552239</v>
       </c>
       <c r="E10" t="n">
-        <v>0.48</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>Nucleotide Salvage Pathway</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.127472647641576e-05</v>
+        <v>0.6313894422422905</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3018867924528302</v>
+        <v>0.3093525179856115</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3018867924528302</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0005181863921678415</v>
+        <v>0.7723588043661997</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2222222222222222</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0007053926451146553</v>
+        <v>0.8366922730310609</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4375</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4375</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.001644001560957484</v>
+        <v>0.8924860592772268</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.25</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2222222222222222</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.003375318547594271</v>
+        <v>0.900536191765288</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5714285714285714</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Threonine and Lysine Metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.007331301951627875</v>
+        <v>0.9015035074002721</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2647058823529412</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Threonine and Lysine Metabolism</t>
+          <t>Alanine and Aspartate Metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.01465522297786651</v>
+        <v>0.9687082582966191</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Murein Biosynthesis</t>
+          <t>Methionine Metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.01561753462870467</v>
+        <v>0.9750890287357373</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Methionine Metabolism</t>
+          <t>Pyruvate Metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.01604990757571526</v>
+        <v>0.9787255058349198</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3333333333333333</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.06632753051301288</v>
+        <v>0.9870601136902475</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2666666666666667</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Arginine and Proline Metabolism</t>
+          <t>tRNA Charging</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.1378828559206593</v>
+        <v>0.9870601136902475</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1707317073170732</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1707317073170732</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>Pentose Phosphate Pathway</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.2010557125862533</v>
+        <v>0.9901716699988364</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.2079881302755338</v>
+        <v>0.9904629702539413</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Citric Acid Cycle</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.2463927973013396</v>
+        <v>0.9954628652833825</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1666666666666667</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Glycine and Serine Metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.2877742531256502</v>
+        <v>0.9954628652833825</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Murein Biosynthesis</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.4704124685608835</v>
+        <v>0.9969181393225</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1212121212121212</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Arginine and Proline Metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.4764589742434789</v>
+        <v>0.9988918739898873</v>
       </c>
       <c r="D27" t="n">
         <v>0.125</v>
       </c>
       <c r="E27" t="n">
-        <v>0.125</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Glycine and Serine Metabolism</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.4836202324236646</v>
+        <v>0.9998293306594132</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1333333333333333</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.5549582691522125</v>
+        <v>0.9999889518173176</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1071428571428571</v>
+        <v>0.1517857142857143</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1071428571428571</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.7094416967188302</v>
+        <v>0.999997941847746</v>
       </c>
       <c r="D30" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.09859154929577464</v>
       </c>
       <c r="E30" t="n">
-        <v>0.09090909090909091</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Cofactor and Prosthetic Group Biosynthesis</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.7403654018537549</v>
+        <v>0.9999999974305664</v>
       </c>
       <c r="D31" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1552511415525114</v>
       </c>
       <c r="E31" t="n">
-        <v>0.08333333333333333</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.7991793529179958</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.07692307692307693</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Citric Acid Cycle</t>
+          <t>Histidine Metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.915864992984849</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0.04545454545454546</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.04545454545454546</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Purine and Pyrimidine Biosynthesis</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1827,16 +1865,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
+          <t>Purine and Pyrimidine Biosynthesis</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1846,16 +1884,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Histidine Metabolism</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1865,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Glyoxylate Metabolism</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1884,16 +1922,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1903,7 +1941,45 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Biomass and maintenance functions</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Extracellular exchange</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -1917,7 +1993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1949,135 +2025,135 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Transport, Inner Membrane</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8.621700484183247e-66</v>
+        <v>2.333708001439904e-115</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5080645161290323</v>
+        <v>0.9148148148148149</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5080645161290323</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alternate Carbon Metabolism</t>
+          <t>Transport, Inner Membrane</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7.0539413388284e-63</v>
+        <v>2.903410145065827e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5898876404494382</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5898876404494382</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nucleotide Salvage Pathway</t>
+          <t>Alternate Carbon Metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6.781583479354851e-20</v>
+        <v>7.88160971188376e-09</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5064935064935064</v>
+        <v>0.4820512820512821</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5064935064935064</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Nucleotide Salvage Pathway</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.459627015666788e-09</v>
+        <v>0.001926016307474944</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.4100719424460432</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5517241379310345</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Nitrogen Metabolism</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.371101695597735e-07</v>
+        <v>0.01617465462324832</v>
       </c>
       <c r="D6" t="n">
-        <v>0.52</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E6" t="n">
-        <v>0.52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Methylglyoxal Metabolism</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6.861876976056599e-07</v>
+        <v>0.06523230244717254</v>
       </c>
       <c r="D7" t="n">
-        <v>0.875</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="E7" t="n">
-        <v>0.875</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>Methylglyoxal Metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5.432457557121302e-06</v>
+        <v>0.258721939665043</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5625</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5625</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2086,74 +2162,74 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Arginine and Proline Metabolism</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.05182034487278e-05</v>
+        <v>0.3951290827359986</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3823529411764706</v>
+        <v>0.325</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3823529411764706</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.449086864362637e-05</v>
+        <v>0.5004504655065943</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2424242424242424</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2424242424242424</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Arginine and Proline Metabolism</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0001038183959758432</v>
+        <v>0.5174867378130394</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3170731707317073</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3170731707317073</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Glycine and Serine Metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0002990988779496154</v>
+        <v>0.6299260897071861</v>
       </c>
       <c r="D12" t="n">
-        <v>0.375</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E12" t="n">
-        <v>0.375</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -2162,41 +2238,41 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>Glyoxylate Metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.001624382801408018</v>
+        <v>0.7532145464894249</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2452830188679245</v>
+        <v>0.25</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2452830188679245</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>tRNA Charging</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.002672585355210596</v>
+        <v>0.8238359927788472</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5714285714285714</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -2204,189 +2280,189 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0109207634878552</v>
+        <v>0.8575603800627496</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Methionine Metabolism</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.01242376146379079</v>
+        <v>0.8775225675547732</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3333333333333333</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Murein Biosynthesis</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.01256823052087751</v>
+        <v>0.88289220438694</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.02695632743633205</v>
+        <v>0.9320473464150341</v>
       </c>
       <c r="D18" t="n">
-        <v>0.25</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="E18" t="n">
-        <v>0.25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Glycine and Serine Metabolism</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.05478378286544189</v>
+        <v>0.9572308834911079</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2666666666666667</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Methionine Metabolism</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.05478378286544189</v>
+        <v>0.961964120562494</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2666666666666667</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Pyruvate Metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.06951673055517987</v>
+        <v>0.9698921370963044</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Cofactor and Prosthetic Group Biosynthesis</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.1200293559629571</v>
+        <v>0.9860224549104514</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1284916201117318</v>
+        <v>0.2164179104477612</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1284916201117318</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>Murein Biosynthesis</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.1795035532832494</v>
+        <v>0.9948076728757593</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1358024691358025</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1358024691358025</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.1895510626788453</v>
+        <v>0.9954593434333194</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2394,193 +2470,193 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.1901600744911391</v>
+        <v>0.995535985092694</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1428571428571428</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.2124791433600104</v>
+        <v>0.9966777713076523</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1666666666666667</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.3432416912013111</v>
+        <v>0.9994793384094148</v>
       </c>
       <c r="D27" t="n">
-        <v>0.25</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="E27" t="n">
-        <v>0.25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.6507226349688232</v>
+        <v>0.9999996264537171</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.685642057323761</v>
+        <v>0.9999999285448727</v>
       </c>
       <c r="D29" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.09821428571428571</v>
       </c>
       <c r="E29" t="n">
-        <v>0.09090909090909091</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Cofactor and Prosthetic Group Biosynthesis</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.7069409234484327</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D30" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="E30" t="n">
-        <v>0.08333333333333333</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Histidine Metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.717077851591385</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.08333333333333333</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.7618750851626164</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.07692307692307693</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.793782508553974</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06666666666666667</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.06666666666666667</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Pentose Phosphate Pathway</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.8557868198005143</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>0.06060606060606061</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.06060606060606061</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -2590,16 +2666,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Histidine Metabolism</t>
+          <t>Citric Acid Cycle</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -2609,16 +2685,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Citric Acid Cycle</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -2628,26 +2704,64 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>Alanine and Aspartate Metabolism</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Biomass and maintenance functions</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>Purine and Pyrimidine Biosynthesis</t>
         </is>
       </c>
-      <c r="C38" t="n">
-        <v>1</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2661,7 +2775,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2693,40 +2807,40 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alternate Carbon Metabolism</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.265460413259013e-46</v>
+        <v>1.618082877268035e-112</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5056179775280899</v>
+        <v>0.9</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5056179775280899</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transport, Inner Membrane</t>
+          <t>Alternate Carbon Metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.602167863845746e-26</v>
+        <v>1.016270168182314e-08</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3346774193548387</v>
+        <v>0.4717948717948718</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3346774193548387</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4">
@@ -2739,246 +2853,246 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.209704859091821e-14</v>
+        <v>3.858746188634201e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6896551724137931</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6896551724137931</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4.715793759000076e-13</v>
+        <v>0.003678547417670924</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5641025641025641</v>
+        <v>0.3955223880597015</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5641025641025641</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>tRNA Charging</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5.622027866704494e-13</v>
+        <v>0.02789417426278335</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3636363636363636</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.079590536422671e-12</v>
+        <v>0.1357418651422004</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.3653846153846154</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7083333333333334</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nucleotide Salvage Pathway</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4.142851204933478e-11</v>
+        <v>0.1862629410216812</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3766233766233766</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3766233766233766</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Nitrogen Metabolism</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8.46482934852083e-10</v>
+        <v>0.5393099817020328</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.569973622045493e-08</v>
+        <v>0.5393099817020328</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4705882352941176</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4705882352941176</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cofactor and Prosthetic Group Biosynthesis</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4.113349919112623e-08</v>
+        <v>0.7768963822567092</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2346368715083799</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2346368715083799</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Methylglyoxal Metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6.640023694510213e-07</v>
+        <v>0.7808524846736916</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Nucleotide Salvage Pathway</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6.640023694510213e-07</v>
+        <v>0.8023989280140575</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5</v>
+        <v>0.2589928057553957</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>Pyruvate Metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.376235590249897e-06</v>
+        <v>0.8303532644838351</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3396226415094339</v>
+        <v>0.2</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3396226415094339</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.326052668694982e-05</v>
+        <v>0.8692149594999741</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2592592592592592</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2592592592592592</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Methylglyoxal Metabolism</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0003998422358772839</v>
+        <v>0.8916110767767084</v>
       </c>
       <c r="D16" t="n">
-        <v>0.625</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="E16" t="n">
-        <v>0.625</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -2986,317 +3100,317 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.002160142947466775</v>
+        <v>0.9421495243064902</v>
       </c>
       <c r="D17" t="n">
-        <v>0.35</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="E17" t="n">
-        <v>0.35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Alanine and Aspartate Metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.002578192238854253</v>
+        <v>0.9528025619089269</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5714285714285714</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Methionine Metabolism</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.01194056871827823</v>
+        <v>0.9528025619089269</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3333333333333333</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Murein Biosynthesis</t>
+          <t>Methionine Metabolism</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.01215345546442175</v>
+        <v>0.956593068379804</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>Transport, Inner Membrane</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.01598985688767733</v>
+        <v>0.9655637738509376</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3125</v>
+        <v>0.2469879518072289</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3125</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Arginine and Proline Metabolism</t>
+          <t>Glycine and Serine Metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.1039207271201071</v>
+        <v>0.9913936553729811</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1707317073170732</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1707317073170732</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Murein Biosynthesis</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.1791299997828027</v>
+        <v>0.9938794115867795</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Glycine and Serine Metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.1791299997828027</v>
+        <v>0.9944108081889204</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.1878396756374409</v>
+        <v>0.9951238453742535</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5</v>
+        <v>0.1875</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.3404643371095947</v>
+        <v>0.9958657686535597</v>
       </c>
       <c r="D26" t="n">
-        <v>0.25</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="E26" t="n">
-        <v>0.25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Arginine and Proline Metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.4278798059656228</v>
+        <v>0.999032816345127</v>
       </c>
       <c r="D27" t="n">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="E27" t="n">
-        <v>0.125</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.4447193595685341</v>
+        <v>0.9998714092580666</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1333333333333333</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Cofactor and Prosthetic Group Biosynthesis</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.4818169994990174</v>
+        <v>0.9999921383984485</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1071428571428571</v>
+        <v>0.1689497716894977</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1071428571428571</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.6470153313987923</v>
+        <v>0.9999951585288904</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Histidine Metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.6470153313987923</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.6819693000105758</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.09090909090909091</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Glyoxylate Metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.7134694836285758</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.08333333333333333</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -3305,22 +3419,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.851900214831929</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>0.06060606060606061</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.06060606060606061</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -3334,16 +3448,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Purine and Pyrimidine Biosynthesis</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3353,16 +3467,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
+          <t>Pentose Phosphate Pathway</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3372,16 +3486,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Histidine Metabolism</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3391,7 +3505,45 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Biomass and maintenance functions</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Purine and Pyrimidine Biosynthesis</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3405,7 +3557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3437,116 +3589,116 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alternate Carbon Metabolism</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.494439749126056e-41</v>
+        <v>6.960222379051506e-121</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4719101123595505</v>
+        <v>0.8814814814814815</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4719101123595505</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transport, Inner Membrane</t>
+          <t>Alternate Carbon Metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7.68119455745459e-35</v>
+        <v>3.527054461465209e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3709677419354839</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3709677419354839</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.490076115427334e-20</v>
+        <v>3.670175695669253e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4444444444444444</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.231603869229947e-19</v>
+        <v>0.002014336661986717</v>
       </c>
       <c r="D5" t="n">
-        <v>0.875</v>
+        <v>0.4423076923076923</v>
       </c>
       <c r="E5" t="n">
-        <v>0.875</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Nitrogen Metabolism</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4.362864214709147e-16</v>
+        <v>0.0058994080974467</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7241379310344828</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7241379310344828</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>tRNA Charging</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.122902881494456e-11</v>
+        <v>0.07770427437916672</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3703703703703703</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
@@ -3555,60 +3707,60 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.060294680241746e-06</v>
+        <v>0.3247166153499988</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3846153846153846</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6.474402358528574e-06</v>
+        <v>0.3711720824381152</v>
       </c>
       <c r="D9" t="n">
-        <v>0.44</v>
+        <v>0.2826086956521739</v>
       </c>
       <c r="E9" t="n">
-        <v>0.44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.782775511801421e-05</v>
+        <v>0.423884278476943</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3018867924528302</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3018867924528302</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -3616,208 +3768,208 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.984687111361831e-05</v>
+        <v>0.6942807575654742</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2597402597402597</v>
+        <v>0.237410071942446</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2597402597402597</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.095698313603074e-05</v>
+        <v>0.7977427433111569</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4166666666666667</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4.014587634252388e-05</v>
+        <v>0.8257815170575458</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cofactor and Prosthetic Group Biosynthesis</t>
+          <t>Threonine and Lysine Metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4.863711863427361e-05</v>
+        <v>0.8938603028580784</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1899441340782123</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1899441340782123</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Methionine Metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0002057371463336463</v>
+        <v>0.9233815697520705</v>
       </c>
       <c r="D15" t="n">
-        <v>0.375</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E15" t="n">
-        <v>0.375</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Alanine and Aspartate Metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0008666744585131037</v>
+        <v>0.9274108346418322</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2941176470588235</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Methylglyoxal Metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.002224294393410515</v>
+        <v>0.9274108346418322</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5714285714285714</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Threonine and Lysine Metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.008641592536693546</v>
+        <v>0.9429916444092783</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Methionine Metabolism</t>
+          <t>Pyruvate Metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.01013971121529535</v>
+        <v>0.9457978337923859</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3333333333333333</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Murein Biosynthesis</t>
+          <t>Transport, Inner Membrane</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.01058619465075332</v>
+        <v>0.9536450491116382</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Arginine and Proline Metabolism</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.08847266019303134</v>
+        <v>0.9585064378924563</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1707317073170732</v>
+        <v>0.1940298507462687</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1707317073170732</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -3825,56 +3977,56 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.1647835885220224</v>
+        <v>0.9831723734883362</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>Murein Biosynthesis</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.1809760772459417</v>
+        <v>0.9874431451837838</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Arginine and Proline Metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.1992598696253176</v>
+        <v>0.9959424396680951</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.1</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1515151515151515</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -3882,174 +4034,174 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.2795119692504906</v>
+        <v>0.9973532155134276</v>
       </c>
       <c r="D25" t="n">
-        <v>0.125</v>
+        <v>0.1267605633802817</v>
       </c>
       <c r="E25" t="n">
-        <v>0.125</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.4241375468192077</v>
+        <v>0.9987986496213359</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1333333333333333</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Cofactor and Prosthetic Group Biosynthesis</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.4241375468192077</v>
+        <v>0.9999494318772625</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.1506849315068493</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1333333333333333</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Methylglyoxal Metabolism</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.5502965856370569</v>
+        <v>0.9999999869348969</v>
       </c>
       <c r="D28" t="n">
-        <v>0.125</v>
+        <v>0.1178861788617886</v>
       </c>
       <c r="E28" t="n">
-        <v>0.125</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.6318293325706201</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Histidine Metabolism</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.6318293325706201</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Purine and Pyrimidine Biosynthesis</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.6668848591051957</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.09090909090909091</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.6801139413280881</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.08333333333333333</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.6986101106189864</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.08333333333333333</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -4059,12 +4211,12 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -4078,16 +4230,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
+          <t>Glyoxylate Metabolism</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -4097,16 +4249,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Purine and Pyrimidine Biosynthesis</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -4116,16 +4268,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Histidine Metabolism</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -4135,7 +4287,45 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Biomass and maintenance functions</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Pentose Phosphate Pathway</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
